--- a/public/files/example .xlsx
+++ b/public/files/example .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrRoboto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Frontend_WEB\2024\NEXT\onstock\onstock-client\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28571554-B70D-46B4-855D-6A0B596DB0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD820C-5D34-4A59-8ED6-6AE32F07A88E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D3FC9229-7F2C-4519-9C04-C0025B27E5CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{D3FC9229-7F2C-4519-9C04-C0025B27E5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -1547,9 +1547,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1557,6 +1554,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF411B23-2D97-4EE0-A214-DCED2EF42E98}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2317,68 +2317,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" ht="26">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="45" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" ht="31" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2" ht="32.5" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:2" ht="18.5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="7" spans="1:2" ht="18.5">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="42"/>
     </row>
     <row r="8" spans="1:2" ht="18.5">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="42"/>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2388,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A50B3F2-C0E5-4299-BE77-6B18CBC8BCE2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
